--- a/data/resumes_scrubbed/legislative_activity/103_1.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/103_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E484CC85-DF25-45F8-A162-2672B5DF36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{E484CC85-DF25-45F8-A162-2672B5DF36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EADCB22-50F5-4FB3-ACAD-A743EB2FDE96}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="103_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Senate</t>
   </si>
@@ -37,9 +37,6 @@
     <t>981 hrs., 55</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t xml:space="preserve">Days in session </t>
   </si>
   <si>
@@ -82,12 +79,6 @@
     <t xml:space="preserve">Quorum calls </t>
   </si>
   <si>
-    <t xml:space="preserve">Yea-and-nay voces </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recorded vores </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bills vetoed </t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t xml:space="preserve">     Measures passed, House bills </t>
   </si>
   <si>
-    <t xml:space="preserve">     Measures passed, Senate joinc resolutions </t>
-  </si>
-  <si>
     <t xml:space="preserve">     Measures passed, House joint resolutions </t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t xml:space="preserve">     Measures reported, Senate joint resolutions </t>
   </si>
   <si>
-    <t xml:space="preserve">     Measures reported, House joinc resolucions </t>
-  </si>
-  <si>
     <t xml:space="preserve">     Measures reported, Senate concurrent resolutions</t>
   </si>
   <si>
@@ -158,12 +143,24 @@
   </si>
   <si>
     <t xml:space="preserve">     Measures introduced, Simple resolutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures reported, House joint resolutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yea-and-nay votes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recorded votes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, Senate joint resolutions </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -708,6 +705,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,7 +1027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1050,7 +1051,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>103</v>
@@ -1064,7 +1065,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1078,7 +1079,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
         <v>33972</v>
@@ -1092,7 +1093,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>34299</v>
@@ -1106,7 +1107,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>153</v>
@@ -1117,7 +1118,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -1128,7 +1129,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>17241</v>
@@ -1142,7 +1143,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>3134</v>
@@ -1153,7 +1154,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>83</v>
@@ -1167,12 +1168,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -1180,7 +1181,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>473</v>
@@ -1194,7 +1195,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>131</v>
@@ -1205,7 +1206,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>113</v>
@@ -1216,7 +1217,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>61</v>
@@ -1227,7 +1228,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>26</v>
@@ -1238,7 +1239,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>29</v>
@@ -1249,7 +1250,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
@@ -1260,7 +1261,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
         <v>93</v>
@@ -1271,7 +1272,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>295</v>
@@ -1285,7 +1286,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>175</v>
@@ -1296,7 +1297,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>38</v>
@@ -1307,7 +1308,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>35</v>
@@ -1318,7 +1319,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -1326,7 +1327,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
@@ -1334,10 +1335,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
@@ -1345,7 +1346,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>37</v>
@@ -1356,7 +1357,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
         <v>22</v>
@@ -1367,7 +1368,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -1375,7 +1376,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
         <v>97</v>
@@ -1386,7 +1387,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
         <v>2178</v>
@@ -1400,7 +1401,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
         <v>1785</v>
@@ -1411,7 +1412,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>160</v>
@@ -1422,7 +1423,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>57</v>
@@ -1433,7 +1434,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>176</v>
@@ -1444,7 +1445,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -1455,7 +1456,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>395</v>
@@ -1466,7 +1467,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1">
         <v>331</v>
@@ -1474,12 +1475,12 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/resumes_scrubbed/legislative_activity/103_1.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/103_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{E484CC85-DF25-45F8-A162-2672B5DF36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EADCB22-50F5-4FB3-ACAD-A743EB2FDE96}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{E484CC85-DF25-45F8-A162-2672B5DF36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{778564E1-4A7A-4A3E-A132-DA2374C7FE77}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="103_1" sheetId="1" r:id="rId1"/>
@@ -1082,13 +1082,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="3">
-        <v>33972</v>
+        <v>33974</v>
       </c>
       <c r="C4" s="3">
-        <v>33972</v>
+        <v>33974</v>
       </c>
       <c r="D4" s="3">
-        <v>33972</v>
+        <v>33974</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
